--- a/templates/Hackathon_harvesting.xlsx
+++ b/templates/Hackathon_harvesting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Documents\ARC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0E5EDA-A11D-4F79-B88C-29C9B0D4BEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6D38AF-1AC4-4774-A1B9-8091BCF75287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C05D2FF-8CD7-4E64-AF20-54B006A3A980}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{9C05D2FF-8CD7-4E64-AF20-54B006A3A980}"/>
   </bookViews>
   <sheets>
     <sheet name="Harvesting_Isolation" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,88 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={4D43D908-7992-4250-A35F-CAE10BFDE6A0}</author>
+    <author>tc={A76215A0-3E59-45A4-B9B1-5A3407629D31}</author>
+    <author>tc={74C8BD2D-2BE2-4C39-A70B-9013E9621571}</author>
+    <author>tc={62AF9F36-A9BF-41DF-9D17-E3C37789A351}</author>
+    <author>tc={FF3F90D2-BE16-4BF3-9315-4E5DF7EC9CD1}</author>
+    <author>tc={22A864D5-B277-4E00-9B71-BC5CA34E0631}</author>
+    <author>tc={16AEE77B-5C2D-4962-BF72-E06EF1948675}</author>
+    <author>tc={36449FF9-08FB-470C-AD3D-89AC2E5AF224}</author>
+    <author>tc={C3A95BC1-B03D-4CA1-ACE5-7632699DFD29}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4D43D908-7992-4250-A35F-CAE10BFDE6A0}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The unique identifier of this template. It will be auto generated.
-Antwort:
+Reply:
     id=c89a6b92-9f00-4076-8130-87d802a51669</t>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{A76215A0-3E59-45A4-B9B1-5A3407629D31}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate template.</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{74C8BD2D-2BE2-4C39-A70B-9013E9621571}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The current version of this template in SemVer notation.</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{62AF9F36-A9BF-41DF-9D17-E3C37789A351}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The description of this template. Use few sentences for succinctness.</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="4" shapeId="0" xr:uid="{FF3F90D2-BE16-4BF3-9315-4E5DF7EC9CD1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="5" shapeId="0" xr:uid="{22A864D5-B277-4E00-9B71-BC5CA34E0631}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate annotation table in the workbook of the template's excel file.</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="6" shapeId="0" xr:uid="{16AEE77B-5C2D-4962-BF72-E06EF1948675}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="7" shapeId="0" xr:uid="{36449FF9-08FB-470C-AD3D-89AC2E5AF224}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{C3A95BC1-B03D-4CA1-ACE5-7632699DFD29}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The author(s) of this template.</t>
       </text>
     </comment>
   </commentList>
@@ -55,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Source Name</t>
   </si>
@@ -129,9 +201,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Docslink</t>
-  </si>
-  <si>
     <t>Organisation</t>
   </si>
   <si>
@@ -189,18 +258,6 @@
     <t>Authors Affiliation</t>
   </si>
   <si>
-    <t>#AUTHORS ROLES list</t>
-  </si>
-  <si>
-    <t>Authors Roles</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Accession Number</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Source REF</t>
-  </si>
-  <si>
     <t>c89a6b92-9f00-4076-8130-87d802a51669</t>
   </si>
   <si>
@@ -229,13 +286,25 @@
   </si>
   <si>
     <t>fabian.haas@uni-marburg.de</t>
+  </si>
+  <si>
+    <t>Authors ORCID</t>
+  </si>
+  <si>
+    <t>Authors Role</t>
+  </si>
+  <si>
+    <t>Authors Role Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Role Term Source REF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +327,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -409,8 +484,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,6 +502,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kevin F" id="{9F20FB10-0A4B-4806-93BF-9815D632B0AD}" userId="b000b0ea35d13fa4" providerId="Windows Live"/>
   <person displayName="Fabian Haas" id="{C1852FD3-A76E-4B2B-A376-78EAED690AC8}" userId="b3b1f7033b8df0eb" providerId="Windows Live"/>
 </personList>
 </file>
@@ -461,7 +537,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -763,6 +839,30 @@
   <threadedComment ref="A1" dT="2022-01-20T15:18:53.40" personId="{C1852FD3-A76E-4B2B-A376-78EAED690AC8}" id="{BB2731F7-7476-4FD9-BD22-0CD303B7BE2E}" parentId="{4D43D908-7992-4250-A35F-CAE10BFDE6A0}">
     <text>id=c89a6b92-9f00-4076-8130-87d802a51669</text>
   </threadedComment>
+  <threadedComment ref="A2" dT="2022-03-04T14:02:18.75" personId="{9F20FB10-0A4B-4806-93BF-9815D632B0AD}" id="{A76215A0-3E59-45A4-B9B1-5A3407629D31}">
+    <text>The name of the Swate template.</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2022-03-04T14:02:18.76" personId="{9F20FB10-0A4B-4806-93BF-9815D632B0AD}" id="{74C8BD2D-2BE2-4C39-A70B-9013E9621571}">
+    <text>The current version of this template in SemVer notation.</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2022-03-04T14:02:18.76" personId="{9F20FB10-0A4B-4806-93BF-9815D632B0AD}" id="{62AF9F36-A9BF-41DF-9D17-E3C37789A351}">
+    <text>The description of this template. Use few sentences for succinctness.</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2022-03-04T14:02:18.76" personId="{9F20FB10-0A4B-4806-93BF-9815D632B0AD}" id="{FF3F90D2-BE16-4BF3-9315-4E5DF7EC9CD1}">
+    <text>The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2022-03-04T14:02:18.76" personId="{9F20FB10-0A4B-4806-93BF-9815D632B0AD}" id="{22A864D5-B277-4E00-9B71-BC5CA34E0631}">
+    <text>The name of the Swate annotation table in the workbook of the template's excel file.</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2022-03-04T14:02:18.76" personId="{9F20FB10-0A4B-4806-93BF-9815D632B0AD}" id="{16AEE77B-5C2D-4962-BF72-E06EF1948675}">
+    <text>A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2022-03-04T14:02:18.77" personId="{9F20FB10-0A4B-4806-93BF-9815D632B0AD}" id="{36449FF9-08FB-470C-AD3D-89AC2E5AF224}">
+    <text>A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2022-03-04T14:02:18.77" personId="{9F20FB10-0A4B-4806-93BF-9815D632B0AD}" id="{C3A95BC1-B03D-4CA1-ACE5-7632699DFD29}">
+    <text>The author(s) of this template.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -801,11 +901,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2394A163-427A-42A3-B91D-2628D93B98EF}">
   <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -901,13 +1001,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD2442D-CB7E-4053-9E5A-DDFAE2780749}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
@@ -918,7 +1018,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,7 +1026,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,7 +1034,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -942,42 +1042,42 @@
         <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -986,24 +1086,24 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1012,46 +1112,46 @@
       <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>55</v>
+      <c r="B17" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1073,37 +1173,31 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="7"/>
+      <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="9"/>
+      <c r="A27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" xr:uid="{3DCFC084-1B42-434C-9560-1DC932B60801}"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{3DCFC084-1B42-434C-9560-1DC932B60801}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
